--- a/Practica2.xlsx
+++ b/Practica2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>Rojo</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>R^2</t>
+  </si>
+  <si>
+    <t>m = 1</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Dispersión [%]</t>
+  </si>
+  <si>
+    <t>m = -1</t>
+  </si>
+  <si>
+    <t>m = 2</t>
   </si>
 </sst>
 </file>
@@ -273,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -317,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,7 +361,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.14198471663286921"/>
           <c:y val="8.4389136822466404E-2"/>
-          <c:w val="0.76250373953317663"/>
+          <c:w val="0.76250373953317674"/>
           <c:h val="0.71081942200536563"/>
         </c:manualLayout>
       </c:layout>
@@ -370,7 +391,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.39130114638733604"/>
+                  <c:x val="-0.3913011463873361"/>
                   <c:y val="4.3309539710655626E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -473,11 +494,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88573056"/>
-        <c:axId val="88574976"/>
+        <c:axId val="49177728"/>
+        <c:axId val="49179648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88573056"/>
+        <c:axId val="49177728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="660"/>
@@ -519,22 +540,22 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4786675649471937"/>
-              <c:y val="0.90074566036952519"/>
+              <c:x val="0.47866756494719376"/>
+              <c:y val="0.90074566036952541"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88574976"/>
+        <c:crossAx val="49179648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
         <c:minorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88574976"/>
+        <c:axId val="49179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -576,26 +597,26 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.3711734005316268E-2"/>
-              <c:y val="0.39111863327061397"/>
+              <c:x val="1.3711734005316271E-2"/>
+              <c:y val="0.39111863327061408"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88573056"/>
+        <c:crossAx val="49177728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
-        <c:minorUnit val="2.5000000000000008E-2"/>
+        <c:minorUnit val="2.5000000000000012E-2"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000988" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000988" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000999" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000999" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -615,7 +636,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.14198471663286921"/>
           <c:y val="8.4389136822466404E-2"/>
-          <c:w val="0.76250373953317685"/>
+          <c:w val="0.76250373953317696"/>
           <c:h val="0.71081942200536563"/>
         </c:manualLayout>
       </c:layout>
@@ -645,7 +666,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.39130114638733615"/>
+                  <c:x val="-0.39130114638733621"/>
                   <c:y val="4.3309539710655626E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -748,11 +769,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89141248"/>
-        <c:axId val="89143168"/>
+        <c:axId val="49487872"/>
+        <c:axId val="49489792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89141248"/>
+        <c:axId val="49487872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="660"/>
@@ -795,21 +816,21 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.47866756494719381"/>
-              <c:y val="0.90074566036952564"/>
+              <c:y val="0.90074566036952575"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89143168"/>
+        <c:crossAx val="49489792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
         <c:minorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89143168"/>
+        <c:axId val="49489792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -851,15 +872,15 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.3711734005316273E-2"/>
-              <c:y val="0.39111863327061419"/>
+              <c:x val="1.3711734005316275E-2"/>
+              <c:y val="0.39111863327061436"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89141248"/>
+        <c:crossAx val="49487872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -870,7 +891,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.7500000000000101" l="0.70000000000000062" r="0.70000000000000062" t="0.7500000000000101" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001021" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001021" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -890,7 +911,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.14198471663286921"/>
           <c:y val="8.4389136822466404E-2"/>
-          <c:w val="0.76250373953317718"/>
+          <c:w val="0.7625037395331774"/>
           <c:h val="0.71081942200536563"/>
         </c:manualLayout>
       </c:layout>
@@ -920,8 +941,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.39544554498204532"/>
-                  <c:y val="-2.0028938978715488E-3"/>
+                  <c:x val="-0.39544554498204537"/>
+                  <c:y val="-2.0028938978715492E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1023,11 +1044,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89160320"/>
-        <c:axId val="89178880"/>
+        <c:axId val="49515136"/>
+        <c:axId val="49533696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89160320"/>
+        <c:axId val="49515136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1300"/>
@@ -1070,21 +1091,21 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.47866756494719381"/>
-              <c:y val="0.90074566036952586"/>
+              <c:y val="0.90074566036952608"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89178880"/>
+        <c:crossAx val="49533696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="107.5"/>
         <c:minorUnit val="53.75"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89178880"/>
+        <c:axId val="49533696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1126,15 +1147,15 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0969387204253014E-2"/>
-              <c:y val="0.33344826322339755"/>
+              <c:x val="1.0969387204253018E-2"/>
+              <c:y val="0.33344826322339766"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89160320"/>
+        <c:crossAx val="49515136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1145,7 +1166,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001033" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001033" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001044" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001044" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1165,7 +1186,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.14198471663286921"/>
           <c:y val="8.4389136822466404E-2"/>
-          <c:w val="0.76250373953317685"/>
+          <c:w val="0.76250373953317696"/>
           <c:h val="0.71081942200536563"/>
         </c:manualLayout>
       </c:layout>
@@ -1195,7 +1216,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.39130114638733615"/>
+                  <c:x val="-0.39130114638733621"/>
                   <c:y val="4.3309539710655626E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1298,11 +1319,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="90064768"/>
-        <c:axId val="90071040"/>
+        <c:axId val="94132096"/>
+        <c:axId val="94138368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90064768"/>
+        <c:axId val="94132096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="660"/>
@@ -1345,21 +1366,21 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.47866756494719381"/>
-              <c:y val="0.90074566036952564"/>
+              <c:y val="0.90074566036952575"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90071040"/>
+        <c:crossAx val="94138368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
         <c:minorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90071040"/>
+        <c:axId val="94138368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1401,15 +1422,15 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.3711734005316273E-2"/>
-              <c:y val="0.39111863327061419"/>
+              <c:x val="1.3711734005316275E-2"/>
+              <c:y val="0.39111863327061436"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90064768"/>
+        <c:crossAx val="94132096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -1420,7 +1441,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.7500000000000101" l="0.70000000000000062" r="0.70000000000000062" t="0.7500000000000101" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001021" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001021" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1440,7 +1461,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.14198471663286921"/>
           <c:y val="8.4389136822466404E-2"/>
-          <c:w val="0.76250373953317718"/>
+          <c:w val="0.7625037395331774"/>
           <c:h val="0.71081942200536563"/>
         </c:manualLayout>
       </c:layout>
@@ -1470,7 +1491,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.39130114638733626"/>
+                  <c:x val="-0.39130114638733632"/>
                   <c:y val="4.3309539710655626E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1573,11 +1594,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="90100480"/>
-        <c:axId val="90102400"/>
+        <c:axId val="94163712"/>
+        <c:axId val="94165632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90100480"/>
+        <c:axId val="94163712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="660"/>
@@ -1620,21 +1641,21 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.47866756494719381"/>
-              <c:y val="0.90074566036952586"/>
+              <c:y val="0.90074566036952608"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90102400"/>
+        <c:crossAx val="94165632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
         <c:minorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90102400"/>
+        <c:axId val="94165632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1676,15 +1697,15 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.3711734005316278E-2"/>
-              <c:y val="0.39111863327061447"/>
+              <c:x val="1.3711734005316282E-2"/>
+              <c:y val="0.39111863327061458"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90100480"/>
+        <c:crossAx val="94163712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -1695,7 +1716,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001033" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001033" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001044" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001044" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1715,7 +1736,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.14198471663286921"/>
           <c:y val="8.4389136822466404E-2"/>
-          <c:w val="0.76250373953317763"/>
+          <c:w val="0.76250373953317774"/>
           <c:h val="0.71081942200536563"/>
         </c:manualLayout>
       </c:layout>
@@ -1745,7 +1766,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.39544554498204543"/>
+                  <c:x val="-0.39544554498204554"/>
                   <c:y val="-2.0028938978715492E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -1848,11 +1869,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89996672"/>
-        <c:axId val="90019328"/>
+        <c:axId val="49630592"/>
+        <c:axId val="49645056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89996672"/>
+        <c:axId val="49630592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1300"/>
@@ -1895,21 +1916,21 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.47866756494719381"/>
-              <c:y val="0.9007456603695263"/>
+              <c:y val="0.90074566036952652"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90019328"/>
+        <c:crossAx val="49645056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="107.5"/>
         <c:minorUnit val="53.75"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90019328"/>
+        <c:axId val="49645056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1952,14 +1973,14 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0969387204253021E-2"/>
-              <c:y val="0.33344826322339777"/>
+              <c:y val="0.33344826322339788"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89996672"/>
+        <c:crossAx val="49630592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1970,7 +1991,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001055" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001055" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001066" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001066" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2453,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3210,7 +3231,7 @@
     </row>
     <row r="43" spans="4:22">
       <c r="D43" s="16">
-        <v>16.457137728338495</v>
+        <v>16.457137728338498</v>
       </c>
       <c r="E43" s="16">
         <v>16.342862271661488</v>
@@ -3263,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="H28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4058,16 +4079,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
@@ -4182,7 +4204,7 @@
         <v>0.99992362646222477</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
@@ -4190,7 +4212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:4">
       <c r="B18" s="6">
         <f>GEOMEAN(B9:B14)*100</f>
         <v>600.3310502243462</v>
@@ -4200,7 +4222,7 @@
         <v>2.2448086598330663</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -4209,8 +4231,273 @@
         <v>1.7879313509569881</v>
       </c>
     </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="6">
+        <f>Julio!D10</f>
+        <v>222.3</v>
+      </c>
+      <c r="C26" s="6">
+        <f>Arturo!D10</f>
+        <v>222.3</v>
+      </c>
+      <c r="D26" s="7">
+        <f>100*ABS(B26-C26)/MAX(B26:C26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="6">
+        <f>Julio!D11</f>
+        <v>222</v>
+      </c>
+      <c r="C27" s="6">
+        <f>Arturo!D11</f>
+        <v>222</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" ref="D27:D29" si="0">100*ABS(B27-C27)/MAX(B27:C27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="6">
+        <f>Julio!D12</f>
+        <v>220.9</v>
+      </c>
+      <c r="C28" s="6">
+        <f>Arturo!D12</f>
+        <v>220.9</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="6">
+        <f>Julio!D13</f>
+        <v>216</v>
+      </c>
+      <c r="C29" s="6">
+        <f>Arturo!D13</f>
+        <v>215.9</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6296296296293664E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="6">
+        <f>Julio!D18</f>
+        <v>255.1</v>
+      </c>
+      <c r="C35" s="6">
+        <f>Arturo!D18</f>
+        <v>255.1</v>
+      </c>
+      <c r="D35" s="7">
+        <f>100*ABS(B35-C35)/MAX(B35:C35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="6">
+        <f>Julio!D19</f>
+        <v>255.6</v>
+      </c>
+      <c r="C36" s="6">
+        <f>Arturo!D19</f>
+        <v>255.5</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" ref="D36:D38" si="1">100*ABS(B36-C36)/MAX(B36:C36)</f>
+        <v>3.9123630672924223E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="6">
+        <f>Julio!D20</f>
+        <v>256.60000000000002</v>
+      </c>
+      <c r="C37" s="6">
+        <f>Arturo!D20</f>
+        <v>256.5</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="1"/>
+        <v>3.897116134061681E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="6">
+        <f>Julio!D21</f>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="C38" s="6">
+        <f>Arturo!D21</f>
+        <v>261.5</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8226299694198287E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="6">
+        <f>Julio!D27</f>
+        <v>273.10000000000002</v>
+      </c>
+      <c r="C44" s="6">
+        <f>Arturo!D27</f>
+        <v>273.10000000000002</v>
+      </c>
+      <c r="D44" s="7">
+        <f>100*ABS(B44-C44)/MAX(B44:C44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="6">
+        <f>Julio!D28</f>
+        <v>274.10000000000002</v>
+      </c>
+      <c r="C45" s="6">
+        <f>Arturo!D28</f>
+        <v>274.2</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" ref="D45:D47" si="2">100*ABS(B45-C45)/MAX(B45:C45)</f>
+        <v>3.6469730123984648E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="6">
+        <f>Julio!D29</f>
+        <v>276.5</v>
+      </c>
+      <c r="C46" s="6">
+        <f>Arturo!D29</f>
+        <v>276.5</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="6">
+        <f>Julio!D30</f>
+        <v>289.60000000000002</v>
+      </c>
+      <c r="C47" s="6">
+        <f>Arturo!D30</f>
+        <v>289.60000000000002</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B41:C41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
